--- a/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51CBE224-497B-401C-83E8-E66AF782CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F468A42-DE53-4E96-9ADE-6FA2BBF75C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23716FB9-368E-457B-B127-6BEAD82CD2A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05B8ADF2-F2FB-4D07-A461-A141ED33F38D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,475 +74,481 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,38%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>94,19%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -966,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7AC459-D94A-454A-8EB5-7FE27D7132A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3096F3B8-9272-4059-9A49-5FDB44EC590C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1245,13 +1251,13 @@
         <v>9339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -1260,13 +1266,13 @@
         <v>26591</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -1275,13 +1281,13 @@
         <v>35931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,13 +1302,13 @@
         <v>509958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>681</v>
@@ -1311,13 +1317,13 @@
         <v>526625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -1326,13 +1332,13 @@
         <v>1036583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,7 +1394,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1400,13 +1406,13 @@
         <v>11198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1415,13 +1421,13 @@
         <v>35757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -1430,13 +1436,13 @@
         <v>46955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,7 +1457,7 @@
         <v>311042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>59</v>
@@ -1743,10 +1749,10 @@
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1767,13 @@
         <v>192360</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>473</v>
@@ -1776,13 +1782,13 @@
         <v>223775</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -1791,13 +1797,13 @@
         <v>416135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1865,13 +1871,13 @@
         <v>9253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -1880,13 +1886,13 @@
         <v>15617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -1895,13 +1901,13 @@
         <v>24869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1922,13 @@
         <v>267970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -1931,13 +1937,13 @@
         <v>260005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -1946,13 +1952,13 @@
         <v>527976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,7 +2014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2020,13 +2026,13 @@
         <v>28795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -2035,13 +2041,13 @@
         <v>67552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -2050,13 +2056,13 @@
         <v>96347</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>598959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>869</v>
@@ -2086,13 +2092,13 @@
         <v>736651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1442</v>
@@ -2101,13 +2107,13 @@
         <v>1335610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2175,13 +2181,13 @@
         <v>6977</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2190,13 +2196,13 @@
         <v>18038</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2205,13 +2211,13 @@
         <v>25016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2232,13 @@
         <v>852451</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>1038</v>
@@ -2241,13 +2247,13 @@
         <v>850396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1793</v>
@@ -2256,13 +2262,13 @@
         <v>1702846</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2336,13 @@
         <v>83055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -2345,13 +2351,13 @@
         <v>196343</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>395</v>
@@ -2360,13 +2366,13 @@
         <v>279397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2387,13 @@
         <v>3302173</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>5059</v>
@@ -2396,13 +2402,13 @@
         <v>3610279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>8343</v>
@@ -2411,13 +2417,13 @@
         <v>6912453</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F468A42-DE53-4E96-9ADE-6FA2BBF75C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBE68B5-4092-41C2-BC0D-6B70DB8822B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05B8ADF2-F2FB-4D07-A461-A141ED33F38D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E2FFE11-BBF4-4D34-820C-B4CA84342EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -972,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3096F3B8-9272-4059-9A49-5FDB44EC590C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3631A-6D06-4C43-8437-D8F4696E1FFA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBE68B5-4092-41C2-BC0D-6B70DB8822B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0E419E-73B2-4B20-BC88-62F61BCE086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E2FFE11-BBF4-4D34-820C-B4CA84342EB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F016E759-CE97-48BB-823C-258F2D72F258}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,109 +134,109 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +245,55 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,253 +302,247 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,19%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -972,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3631A-6D06-4C43-8437-D8F4696E1FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF9191D-898D-4989-BBCE-EB3F3D6CF702}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1251,13 +1245,13 @@
         <v>9339</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -1266,13 +1260,13 @@
         <v>26591</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -1281,13 +1275,13 @@
         <v>35931</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,13 +1296,13 @@
         <v>509958</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>681</v>
@@ -1317,13 +1311,13 @@
         <v>526625</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -1332,13 +1326,13 @@
         <v>1036583</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,7 +1388,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1406,13 +1400,13 @@
         <v>11198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1421,13 +1415,13 @@
         <v>35757</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -1436,13 +1430,13 @@
         <v>46955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,7 +1451,7 @@
         <v>311042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>59</v>
@@ -1749,10 +1743,10 @@
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1761,13 @@
         <v>192360</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>473</v>
@@ -1782,13 +1776,13 @@
         <v>223775</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -1797,13 +1791,13 @@
         <v>416135</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1853,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1871,13 +1865,13 @@
         <v>9253</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -1886,13 +1880,13 @@
         <v>15617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -1901,13 +1895,13 @@
         <v>24869</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1916,13 @@
         <v>267970</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -1937,13 +1931,13 @@
         <v>260005</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -1952,13 +1946,13 @@
         <v>527976</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2008,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2020,13 @@
         <v>28795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -2041,13 +2035,13 @@
         <v>67552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -2056,13 +2050,13 @@
         <v>96347</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>598959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>869</v>
@@ -2092,13 +2086,13 @@
         <v>736651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>1442</v>
@@ -2107,13 +2101,13 @@
         <v>1335610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2163,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2181,13 +2175,13 @@
         <v>6977</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2196,13 +2190,13 @@
         <v>18038</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2211,13 +2205,13 @@
         <v>25016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2226,13 @@
         <v>852451</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>1038</v>
@@ -2247,13 +2241,13 @@
         <v>850396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1793</v>
@@ -2262,13 +2256,13 @@
         <v>1702846</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2330,13 @@
         <v>83055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -2351,13 +2345,13 @@
         <v>196343</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>395</v>
@@ -2366,13 +2360,13 @@
         <v>279397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2381,13 @@
         <v>3302173</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>5059</v>
@@ -2402,13 +2396,13 @@
         <v>3610279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>8343</v>
@@ -2417,13 +2411,13 @@
         <v>6912453</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2473,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0E419E-73B2-4B20-BC88-62F61BCE086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64DF5D76-ED03-44FB-82EF-FB3593D768B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F016E759-CE97-48BB-823C-258F2D72F258}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00D6AA53-F351-4FBB-B4AE-6AA2DF1CDDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -71,172 +71,172 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,313 +245,325 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF9191D-898D-4989-BBCE-EB3F3D6CF702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79708E5C-DBDA-43CA-BF55-11AA072D12EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1087,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2877</v>
+        <v>3314</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1102,82 +1114,82 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1775</v>
+        <v>1834</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>4652</v>
+        <v>5149</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>327</v>
       </c>
       <c r="D5" s="7">
-        <v>257421</v>
+        <v>308129</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>533</v>
       </c>
       <c r="I5" s="7">
-        <v>269628</v>
+        <v>287801</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
       </c>
       <c r="N5" s="7">
-        <v>527048</v>
+        <v>595928</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1189,51 +1201,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1242,61 +1254,61 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>9339</v>
+        <v>8906</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>26591</v>
+        <v>24485</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>35931</v>
+        <v>33391</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>374</v>
       </c>
       <c r="D8" s="7">
-        <v>509958</v>
+        <v>509484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -1308,7 +1320,7 @@
         <v>681</v>
       </c>
       <c r="I8" s="7">
-        <v>526625</v>
+        <v>489240</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1323,7 +1335,7 @@
         <v>1055</v>
       </c>
       <c r="N8" s="7">
-        <v>1036583</v>
+        <v>998724</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1344,46 +1356,46 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072514</v>
+        <v>1032115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>11198</v>
+        <v>10800</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1412,7 +1424,7 @@
         <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>35757</v>
+        <v>33132</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1427,7 +1439,7 @@
         <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>46955</v>
+        <v>43932</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1442,13 +1454,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>345</v>
       </c>
       <c r="D11" s="7">
-        <v>311042</v>
+        <v>305250</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1463,7 +1475,7 @@
         <v>479</v>
       </c>
       <c r="I11" s="7">
-        <v>337527</v>
+        <v>315996</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1478,7 +1490,7 @@
         <v>824</v>
       </c>
       <c r="N11" s="7">
-        <v>648569</v>
+        <v>621246</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1499,46 +1511,46 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>10227</v>
+        <v>9915</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1567,7 +1579,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>22885</v>
+        <v>21377</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1582,7 +1594,7 @@
         <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>33111</v>
+        <v>31292</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1597,13 +1609,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>312013</v>
+        <v>302642</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1618,7 +1630,7 @@
         <v>554</v>
       </c>
       <c r="I14" s="7">
-        <v>405671</v>
+        <v>454341</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1633,7 +1645,7 @@
         <v>833</v>
       </c>
       <c r="N14" s="7">
-        <v>717685</v>
+        <v>756982</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1654,46 +1666,46 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>4388</v>
+        <v>3995</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1722,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>8128</v>
+        <v>7421</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1737,67 +1749,67 @@
         <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>12516</v>
+        <v>11416</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>192360</v>
+        <v>174747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>473</v>
       </c>
       <c r="I17" s="7">
-        <v>223775</v>
+        <v>201235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
       </c>
       <c r="N17" s="7">
-        <v>416135</v>
+        <v>375982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,51 +1821,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1862,97 +1874,97 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>9253</v>
+        <v>8974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>15617</v>
+        <v>14340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>24869</v>
+        <v>23314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>359</v>
       </c>
       <c r="D20" s="7">
-        <v>267970</v>
+        <v>260662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
       </c>
       <c r="I20" s="7">
-        <v>260005</v>
+        <v>242716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
       </c>
       <c r="N20" s="7">
-        <v>527976</v>
+        <v>503378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,51 +1976,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2017,97 +2029,97 @@
         <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>28795</v>
+        <v>27795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>67552</v>
+        <v>61714</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
       </c>
       <c r="N22" s="7">
-        <v>96347</v>
+        <v>89509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>598959</v>
+        <v>596484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>869</v>
       </c>
       <c r="I23" s="7">
-        <v>736651</v>
+        <v>787551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1442</v>
       </c>
       <c r="N23" s="7">
-        <v>1335610</v>
+        <v>1384035</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,51 +2131,51 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2172,97 +2184,97 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>6977</v>
+        <v>5928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>18038</v>
+        <v>15093</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>25016</v>
+        <v>21021</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>755</v>
       </c>
       <c r="D26" s="7">
-        <v>852451</v>
+        <v>922792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>1038</v>
       </c>
       <c r="I26" s="7">
-        <v>850396</v>
+        <v>702638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1793</v>
       </c>
       <c r="N26" s="7">
-        <v>1702846</v>
+        <v>1625431</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,46 +2286,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,97 +2339,97 @@
         <v>92</v>
       </c>
       <c r="D28" s="7">
-        <v>83055</v>
+        <v>79627</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
       </c>
       <c r="I28" s="7">
-        <v>196343</v>
+        <v>179396</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>395</v>
       </c>
       <c r="N28" s="7">
-        <v>279397</v>
+        <v>259023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3284</v>
       </c>
       <c r="D29" s="7">
-        <v>3302173</v>
+        <v>3380190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>5059</v>
       </c>
       <c r="I29" s="7">
-        <v>3610279</v>
+        <v>3481517</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>8343</v>
       </c>
       <c r="N29" s="7">
-        <v>6912453</v>
+        <v>6861707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,51 +2441,51 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3806622</v>
+        <v>3660913</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8738</v>
       </c>
       <c r="N30" s="7">
-        <v>7191850</v>
+        <v>7120730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
